--- a/datafiles/readInput.xlsx
+++ b/datafiles/readInput.xlsx
@@ -3,23 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumkiran\buddygraduate\assignment\assignment\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACC6AF-4042-4502-87DE-A1DADB9FBAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC434A43-C2BD-41FA-9D59-55989B6C7178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{204976A7-F3D3-49B0-9FE4-520FEB9F50C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{204976A7-F3D3-49B0-9FE4-520FEB9F50C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -84,7 +83,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,15 +443,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD576B13-8E87-4FEE-A7A2-89FD6BC4C91F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.26953125"/>
-    <col min="2" max="2" customWidth="true" width="15.1796875"/>
-    <col min="3" max="3" customWidth="true" width="18.6328125"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -531,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B38F5B-78AA-4414-8DB4-E6D13B33E9E9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -606,67 +604,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>